--- a/クリックポスト発送情報/20200618_error/英子日本发货表格6.18.xlsx
+++ b/クリックポスト発送情報/20200618_error/英子日本发货表格6.18.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>序号</t>
   </si>
@@ -254,10 +254,6 @@
   </si>
   <si>
     <t>628484318825</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>628484318814</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -1235,8 +1231,8 @@
   <dimension ref="A1:FY258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1668,9 +1664,7 @@
       <c r="I4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -1696,7 +1690,7 @@
         <v>35</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
@@ -1723,7 +1717,7 @@
         <v>41</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
@@ -1750,7 +1744,7 @@
         <v>47</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
@@ -1777,7 +1771,7 @@
         <v>53</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
@@ -1804,7 +1798,7 @@
         <v>59</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
@@ -1831,7 +1825,7 @@
         <v>65</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
@@ -1858,7 +1852,7 @@
         <v>65</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1"/>
